--- a/excel/11.xlsx
+++ b/excel/11.xlsx
@@ -891,7 +891,11 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>采矿学张士川 (9-11周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>弹性力学基础蒋邦友 (9-16周) 采矿工程（智能开采方向）2019-1</t>
@@ -944,7 +948,11 @@
           <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>电子商务杨磊 (8-15周) 临班677</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
@@ -1061,7 +1069,7 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>运输项目管理与评估孙彦明,张传明 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输项目管理与评估孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1244,7 +1252,11 @@
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>普通化学（B）陈伟 (4-11周) 地质工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>供应链管理李美燕 (4-15周) 工业工程2018-1-3</t>
@@ -1325,7 +1337,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1363,7 +1375,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1595,7 +1607,7 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1672,7 +1684,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
+          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1990,7 +2002,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
@@ -2028,7 +2040,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr"/>
@@ -3051,7 +3063,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3077,7 +3089,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 机械电子工程2021-4-6</t>
+          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3526,11 +3538,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>电机拖动与控制郝妮妮 (10-15周) 机械电子工程2019-1-2</t>
@@ -3561,7 +3569,11 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>采矿学张士川 (9-11周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -3597,7 +3609,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>当代中国经济专题*孙江永,赵金凯 (11-18周) 国际经济与贸易2020-1-2</t>
+          <t>当代中国经济专题*李丽丽,孟文强,孙江永,赵金凯 (11-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3853,7 +3865,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3942,7 +3954,7 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (1-13周) 工商管理2019-2</t>
+          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -4005,7 +4017,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
+          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4085,7 +4097,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4115,7 +4127,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4137,7 +4149,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -4223,11 +4235,7 @@
           <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
@@ -4296,7 +4304,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4326,7 +4334,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -4364,7 +4372,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
@@ -4907,11 +4915,7 @@
           <t>有机化学（2-2）王翠珍 (11-19周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>采矿学张士川 (9-11周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
+      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr">
         <is>
           <t>工程概论王永萍 (10-17周) 工业工程2020-1-2</t>
@@ -5920,7 +5924,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5928,11 +5932,7 @@
           <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
@@ -6613,7 +6613,7 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -6643,7 +6643,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -6659,12 +6659,12 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>专业英语赵俐红 (4-11周) 勘查技术与工程2018-1-2</t>
+          <t>专业英语赵俐红 (5-11周) 勘查技术与工程2018-1-2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -7807,11 +7807,7 @@
           <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
@@ -7824,11 +7820,7 @@
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14单周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
           <t>化工原理(2-2)马艺心 (1-7,10-11周) 生物工程2019-1</t>
@@ -8655,7 +8647,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -8677,14 +8669,10 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
@@ -8706,11 +8694,7 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
           <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
@@ -8748,7 +8732,11 @@
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
@@ -8776,13 +8764,21 @@
           <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
           <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr">
         <is>

--- a/excel/11.xlsx
+++ b/excel/11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK88"/>
+  <dimension ref="A1:AK87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,7 +803,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
+          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -813,14 +813,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>工商管理学科前沿﹡方宏 (11-19周) 工商管理2018-1-2</t>
+          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
+          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -829,7 +829,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>宏观经济学（C）刘红英 (10-17周) 物流管理2020-1-2</t>
+          <t>宏观经济学（C）李淑云 (10-17周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -838,7 +838,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
+          <t>劳动与社会保障学周志刚 (10-17周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>工商管理学科前沿﹡方宏 (11-19周) 工商管理2018-1-2</t>
+          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -928,7 +928,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>结构设计原理孙宗军 (9-15周) 交通工程2019-1-2</t>
+          <t>结构设计原理孙宗军 (11-15周) 交通工程2019-1-2</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -962,7 +962,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>结构设计原理孙宗军 (9-15周) 交通工程2019-1-2</t>
+          <t>结构设计原理孙宗军 (11-15周) 交通工程2019-1-2</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr"/>
@@ -1033,7 +1033,11 @@
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>金属塑性成形原理刘杰 (11周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
           <t>工程概论李英 (10-11周) 测绘工程2020-1-3</t>
@@ -1053,7 +1057,7 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1063,7 +1067,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr"/>
@@ -1074,12 +1078,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1168,7 +1172,11 @@
           <t>材料物理性能李桂杰 (10-18周) 金属材料工程2019-1-2</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>材料力学性能李敏 (11周) 金属材料工程2019-3</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1182,7 +1190,11 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>运筹学（B）庄晓雯 (11周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
@@ -1308,7 +1320,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>政府及非营利组织会计崔树德 (11-19周) 会计学2019-1-2</t>
+          <t>政府及非营利组织会计崔树德 (11-17周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1318,14 +1330,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>第三方物流董兴林 (11-19周) 物流管理2018-1-2</t>
+          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>国际贸易侯贵生 (8-19周) 国际经济与贸易2020-1-2</t>
+          <t>国际贸易侯贵生 (8-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1342,7 +1354,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>政府及非营利组织会计崔树德 (11-19周) 会计学2019-1-2</t>
+          <t>政府及非营利组织会计崔树德 (11-17周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1380,7 +1392,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>数据库原理与应用朱红春 (11-16周) 遥感科学与技术2018-1-3</t>
+          <t>数据库原理与应用朱红春 (11,14-16周) 遥感科学与技术2018-1-3</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1393,12 +1405,12 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1414,12 +1426,12 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1479,7 +1491,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>弹性力学基础陈军涛 (9-12周) 采矿工程2019-3-4</t>
+          <t>弹性力学基础刘学生 (9-12周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1503,7 +1515,11 @@
           <t>机械工程控制基础江守波 (9-15周) 机械电子工程2019-1-2</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr">
         <is>
           <t>互换性与机械制造基础王素玉 (8-17周) 工业工程2019-1-2</t>
@@ -1646,11 +1662,7 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1664,11 +1676,7 @@
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1825,7 +1833,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (11-19周) 工商管理2019-1-2</t>
+          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1842,7 +1850,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1860,7 +1868,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-19周) 电子商务2019-1-2</t>
+          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1872,7 +1880,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1882,7 +1890,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (11-19周) 工商管理2019-1-2</t>
+          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1893,7 +1901,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-19周) 电子商务2019-1-2</t>
+          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1910,12 +1918,12 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -1964,7 +1972,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1984,7 +1992,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1992,7 +2000,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2112,7 +2120,7 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr">
         <is>
-          <t>破碎磨矿李琳 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2142,7 +2150,11 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>机械设计（A）叶铁丽 (8-16周) 机械设计制造及其自动化2019-4-5</t>
@@ -2178,7 +2190,11 @@
           <t>机械设计（A）高丽 (7-15周) 机械电子工程2019-4-5</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>普通地质学王泽利 (11周) 资源勘查工程2021-2</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
@@ -2422,7 +2438,11 @@
           <t>大数据与机器学习刘洪强 (11-19周) 地理信息科学2018-1-3</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>制图基础（A）戚美 (9-15周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
@@ -2436,7 +2456,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2567,12 +2587,12 @@
           <t>矿井地质学李守春 (4-12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>计算机程序设计（C语言）张涛 (7-14周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>数据库原理与应用朱红春 (11周) 遥感科学与技术2018-1-3</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
@@ -2639,7 +2659,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
+          <t>概率论与数理统计黄珍 (1-3,5-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2651,7 +2671,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2661,7 +2681,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2692,11 +2712,7 @@
           <t>管理会计刘立华 (1-12周) 会计学2019-1-2</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
           <t>形势与政策（4-1）张洋 (9-12周) 化学工程与工艺2021-1-3</t>
@@ -2739,7 +2755,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>流体力学与流体机械吴蓬 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2837,11 +2853,7 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>机械制造技术基础杨俊茹 (8-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>机械设计A李桂莉 (7-15周) 过程装备与控制工程2019-1-2</t>
@@ -2862,12 +2874,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -2879,7 +2891,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2896,7 +2908,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
@@ -2924,7 +2936,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2941,7 +2953,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-19周) 工商管理2019-1-2</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2960,14 +2972,14 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>第三方物流董兴林 (11-19周) 物流管理2018-1-2</t>
+          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-19周) 工商管理2019-1-2</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3014,22 +3026,22 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr"/>
@@ -3054,7 +3066,11 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
@@ -3093,7 +3109,11 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
@@ -3102,7 +3122,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
@@ -3136,19 +3156,27 @@
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>弹性力学基础刘学生 (10-13周) 采矿工程2019-3-4</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-3</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>运筹学（B）李洪伟 (11周) 工商管理2019-1</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>零件失效分析李敏 (11-18周) 金属材料工程2018-1-3</t>
+          <t>零件失效分析李敏 (11-12,14-18周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3181,7 +3209,11 @@
           <t>零件失效分析李敏 (11-18周) 金属材料工程2018-1-3</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>政府及非营利组织会计崔树德 (11-12周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr">
         <is>
           <t>金属成型原理与工艺王淑峰 (9-12周) 金属材料工程2019-3</t>
@@ -3313,7 +3345,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3325,7 +3357,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>破碎磨矿李琳 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3340,14 +3372,14 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>催化化学陈伟 (11-19周) 应用化学2018-1-3</t>
+          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3404,11 +3436,7 @@
           <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>投资银行学孟科学 (10-18周) 投资学2018-1-2</t>
@@ -3423,7 +3451,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -3459,11 +3487,7 @@
           <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>地下水动力学王敏 (2-12周) 水文与水资源工程2019-1-2</t>
@@ -3478,12 +3502,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>工程地质学基础张伟杰 (8-16周) 地质工程2019-1</t>
+          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr"/>
@@ -3532,7 +3556,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>数据库原理与应用朱红春 (11-16周) 遥感科学与技术2018-1-3</t>
+          <t>数据库原理与应用张蕾 (11周) 遥感科学与技术2018-1-3</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -3604,7 +3628,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3634,7 +3658,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3646,7 +3670,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>文献检索与论文写作刘露 (11-19周) 物流管理2019-1-2</t>
+          <t>文献检索与论文写作刘露 (11-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3693,7 +3717,7 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>会计信息系统刘超 (6-19周) 会计学(辅修) 2019版</t>
+          <t>会计信息系统刘超 (6-18周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr"/>
@@ -3726,7 +3750,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>机械工程控制基础陈毕胜 (10-18周) 机械电子工程(留学生)2019</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -3914,7 +3938,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3936,7 +3960,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
+          <t>金融学(A)邢苗 (8-17周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3959,7 +3983,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="U34" t="inlineStr"/>
@@ -4012,7 +4036,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>沉积岩岩石学韩作振 (6-13周) 资源勘查工程2020-1</t>
+          <t>沉积岩岩石学韩作振 (6-11,13周) 资源勘查工程2020-1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4144,7 +4168,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -4160,17 +4184,17 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>中国近现代史纲要叶小青 (4-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+          <t>中国近现代史纲要叶小青 (4-7,9-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4204,11 +4228,7 @@
           <t>海洋调查方法刘金庆 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
@@ -4217,7 +4237,11 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>数字信号分析与处理丁仁伟 (11周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
@@ -4225,21 +4249,17 @@
           <t>普通地质学孟凡雪 (4-15周) 资源勘查工程2021-3</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
+          <t>数学物理方程王德营 (8-12,14-19周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4262,7 +4282,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4334,14 +4354,14 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-4,6-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4453,11 +4473,7 @@
           <t>重磁勘探李建平 (1-11周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>测井地质学杨思通,张涛 (4-12周) 资源勘查工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
           <t>数字信号分析与处理丁仁伟 (2-11周) 勘查技术与工程2019-1-2</t>
@@ -4521,7 +4537,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4547,7 +4563,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4555,11 +4571,7 @@
           <t>有限元方法刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
@@ -4610,7 +4622,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4661,7 +4673,7 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
+          <t>机械原理（A）魏军英 (5-7,9-15周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -4703,7 +4715,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>金融经济学秦晓钰 (11-19周) 金融学2019-1-2</t>
+          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4948,7 +4960,11 @@
           <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -4962,7 +4978,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -5082,7 +5098,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -5239,11 +5255,7 @@
           <t>过程装备控制技术及应用陈广庆 (11-18周) 过程装备与控制工程2018-1-3</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
@@ -5378,18 +5390,10 @@
           <t>材料成形设备王翠香 (8-15周) 材料成型及控制工程2018-1-2</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>数控自动编程于蓉蓉 (9-17周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -5430,11 +5434,7 @@
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
@@ -5459,12 +5459,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>公司治理周志刚 (11-19周) 工商管理2018-1-2</t>
+          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -5485,17 +5485,17 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (11-19周) 金融学2019-1-2</t>
+          <t>银行结算*邢苗 (11-17周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -5511,12 +5511,12 @@
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (11-19周) 金融学2019-1-2</t>
+          <t>银行结算*邢苗 (11-17周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>材料科学基础张芬 (7-16周) 材料化学2019-1-2</t>
+          <t>材料科学基础张芬 (7-12,14-16周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
@@ -5746,11 +5746,7 @@
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>空间数据库张蕾 (11-18周) 地理信息科学2020-3</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -5844,7 +5840,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5857,7 +5853,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5874,7 +5870,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5936,7 +5932,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>普通地质学张丽萍 (4-11周) 水文与水资源工程2021-1</t>
+          <t>普通地质学张丽萍 (4-5,7-11周) 水文与水资源工程2021-1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5955,7 +5951,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -5969,11 +5965,7 @@
           <t>专业英语张军建,郑雪 (4-13周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr">
         <is>
           <t>海洋地质学宋召军,许庆林 (9-17周) 资源勘查工程（海洋矿产资源方向）2019</t>
@@ -6237,7 +6229,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>机器人技术高魁东,张明辉 (9-16周) 机械设计制造及其自动化2018-1-5</t>
+          <t>机器人技术高魁东,张明辉 (9-12,14-16周) 机械设计制造及其自动化2018-1-5</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -6276,7 +6268,7 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="U59" t="inlineStr"/>
@@ -6293,7 +6285,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr"/>
@@ -6350,7 +6342,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6365,11 +6357,7 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>工程力学邱月 (7-18周) 金属材料工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
@@ -6418,7 +6406,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -6430,7 +6418,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -6443,7 +6431,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>公司治理周志刚 (11-19周) 工商管理2018-1-2</t>
+          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -6456,7 +6444,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6469,7 +6457,7 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
+          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -6532,7 +6520,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6561,11 +6549,7 @@
           <t>大学英语（A)(2-1)赵善青 (4-19周) 测绘工程2021-3</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-16周) 法学2019-1-3</t>
-        </is>
-      </c>
+      <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr">
@@ -6738,7 +6722,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6760,7 +6744,7 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr">
         <is>
-          <t>金融经济学秦晓钰 (11-19周) 金融学2019-1-2</t>
+          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -6772,7 +6756,7 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -6828,7 +6812,11 @@
           <t>数据结构（B）贾瑞生 (9-16周) 测绘工程2020-1-3</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
@@ -6844,7 +6832,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>数据库原理与应用朱红春 (11-16周) 遥感科学与技术2018-1-3</t>
+          <t>数据库原理与应用张蕾 (11周) 遥感科学与技术2018-1-3</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -7009,11 +6997,7 @@
           <t>J14-424室</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
@@ -7028,7 +7012,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -7214,7 +7198,11 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -7394,7 +7382,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>水灾害防治魏久传 (6-13周) 水文与水资源工程2018-2</t>
+          <t>水灾害防治魏久传 (6-12周) 水文与水资源工程2018-2</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -7475,11 +7463,7 @@
           <t>水文地质与工程地质学高宗军,张彧齐 (9-14周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
           <t>矿相学辛未 (4-12周) 资源勘查工程2018-1-3</t>
@@ -7574,7 +7558,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>催化化学陈伟 (11-19周) 应用化学2018-1-3</t>
+          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -7586,7 +7570,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -7796,7 +7780,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -7804,7 +7788,7 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
+          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -7831,7 +7815,7 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -7839,7 +7823,7 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -7877,7 +7861,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>流体力学与流体机械张同环 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -8102,16 +8086,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J14-513室</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
+          <t>J14-512室</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -8120,14 +8120,38 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
@@ -8135,16 +8159,8 @@
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
-      <c r="AH79" t="inlineStr">
-        <is>
-          <t>从思维创新到大创实践柴龙国,戴宜雯,刘善德,杨彬,张玉萍 (8-15周) 临班479</t>
-        </is>
-      </c>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
@@ -8155,32 +8171,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J14-512室</t>
+          <t>J14-516室</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>室内设计原理许士朋 (10-15周) 环境设计2020-1</t>
-        </is>
-      </c>
+          <t>环境设计专业导论甄珍等 (6-13周) 环境设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>室内设计原理李王婷 (10-15周) 环境设计2020-2</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -8189,38 +8193,14 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-2</t>
-        </is>
-      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
-        </is>
-      </c>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>字体与版式设计李妍 (10-14周) 环境设计2020-1</t>
-        </is>
-      </c>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
@@ -8240,17 +8220,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-520室</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>环境设计专业导论甄珍等 (6-13周) 环境设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -8264,13 +8252,33 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>设计概论姜涛 (9-11周) 视觉传达设计2021-2 设计概论岳文婧 (9-11周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>设计概论姜涛 (9-11周) 视觉传达设计2021-2 设计概论岳文婧 (9-11周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>书法王书侠 (11周) 视觉传达设计2021-1-2</t>
+        </is>
+      </c>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
@@ -8289,65 +8297,53 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>J14-520室</t>
+          <t>J14-524室</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>设计概论姜涛 (9-11周) 视觉传达设计2021-2 设计概论岳文婧 (9-11周) 视觉传达设计2021-1</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>设计概论姜涛 (9-11周) 视觉传达设计2021-2 设计概论岳文婧 (9-11周) 视觉传达设计2021-1</t>
-        </is>
-      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>书法王书侠 (9-11周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>书法王书侠 (11周) 视觉传达设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
@@ -8366,45 +8362,41 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-528室</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>构成设计Ⅲ蔡颖君 (11-13周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
@@ -8431,7 +8423,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-528室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -8439,31 +8431,27 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>专业导论(双语)张琳等 (9-16周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>产品设计程序与方 法张宁 (6-11周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
@@ -8492,43 +8480,79 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-536室</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+          <t>J14-540室</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>专业导论(双语)张琳等 (9-16周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>工业设计史薄其芳 (7-14周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
@@ -8549,80 +8573,64 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-540室</t>
+          <t>J14-525室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>海洋产品设计宋玉凤 (10-15周) 产品设计2019-1-2</t>
+          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+          <t>机械设计基础（A）陈修龙 (8-15周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr">
         <is>
-          <t>交通工具设计贾乐宾 (6-11周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr"/>
+          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (11-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (11-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -8642,66 +8650,106 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-332室</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
+          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr"/>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>海洋地球物理学支鹏遥 (9-12周) 资源勘查工程（海洋矿产资源方向）2019</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>水文地质与工程地质学高宗军,张彧齐 (3-14周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
@@ -8713,119 +8761,6 @@
       <c r="AJ87" t="inlineStr"/>
       <c r="AK87" t="inlineStr"/>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>工程地质学基础郭建斌 (8-16周) 地质工程2019-3</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>工程地质学基础张伟杰 (9-16周) 地质工程2019-1</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>海洋地球物理学支鹏遥 (9-12周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr">
-        <is>
-          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="inlineStr"/>
-      <c r="AF88" t="inlineStr"/>
-      <c r="AG88" t="inlineStr"/>
-      <c r="AH88" t="inlineStr"/>
-      <c r="AI88" t="inlineStr"/>
-      <c r="AJ88" t="inlineStr"/>
-      <c r="AK88" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/11.xlsx
+++ b/excel/11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK101"/>
+  <dimension ref="A1:AK99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,12 +897,12 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>流体力学辛林 (9-13周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (9-13周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -941,7 +941,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -1208,22 +1208,22 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
+          <t>会计信息系统（A）崔树德 (1,3-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1423,19 +1423,19 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>EXCEL财务应用赵桐 (1-12周) 会计学(辅修)2019</t>
+          <t>EXCEL财务应用赵桐 (1-3,5-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1,3-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2043,16 +2043,8 @@
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
           <t>地理建模原理与方法刘羽 (4-12周) 地理信息科学2019-1</t>
@@ -2221,11 +2213,7 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>机械原理杨通 (7-17单周) 机械设计制造及其自动化2020-2-3</t>
@@ -2255,11 +2243,7 @@
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t>机械原理杨通 (7-17单周) 机械设计制造及其自动化2020-2-3</t>
@@ -2276,11 +2260,7 @@
           <t>机械设计基础（A）陈毕胜 (4-15周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t>微机原理及应用王宝仁 (4-13周) 机械设计制造及其自动化2020-1-2</t>
@@ -2293,11 +2273,7 @@
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>机械设备故障诊断技术基础胡效东,孙爱芹 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
@@ -2330,22 +2306,14 @@
           <t>机械振动与噪声控制牟鸣飞 (9-16周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>计算机程序设计基础（C语言）高峰 (11-16周) 机械设计制造及其自动化2021-5</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
@@ -2380,16 +2348,8 @@
           <t>微观经济学(A)陈爱萍 (8-17周) 会计学2021-2</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t>微机原理及应用武洪恩 (4-13周) 机械设计制造及其自动化2020-5-6</t>
@@ -2435,7 +2395,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2466,7 +2426,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2474,7 +2434,7 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2536,7 +2496,11 @@
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>遥感图像解译黄珏 (9-15周) 遥感科学与技术2020-1-3</t>
@@ -2698,7 +2662,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>材料力学（B）赵增辉 (1-11周) 采矿工程2020-1-2</t>
+          <t>材料力学（B）赵增辉 (1,3-11周) 采矿工程2020-1-2</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2821,11 +2785,7 @@
           <t>火灾事故调查孔彪 (4-11周) 安全工程2019-1-2</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -2878,11 +2838,7 @@
           <t>机器人技术高魁东 (6-14周) 机械电子工程2019-3-4</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
@@ -2908,11 +2864,7 @@
           <t>机器人技术高魁东 (6-14周) 机械电子工程2019-3-4</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -3299,7 +3251,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>电子技术仉毅 (1-6,10-13周) 机械电子工程2020-5-6</t>
+          <t>电子技术仉毅 (1,3-6,10-13周) 机械电子工程2020-5-6</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -3548,16 +3500,8 @@
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>流体力学陈旭 (6-13周) 安全工程2020-4</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>机械制图（2）朱苏宁 (11周) 机械电子工程(留学生)2021</t>
@@ -3582,11 +3526,7 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
           <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
@@ -3616,11 +3556,7 @@
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -3656,7 +3592,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3732,17 +3668,9 @@
           <t>电子技术吴清收 (1-6,10-14周) 机械电子工程2020-3-4</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
@@ -3762,41 +3690,25 @@
           <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>可编程控制器郝妮妮 (6-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>电子技术吴清收 (1-6,10-13周) 机械电子工程2020-3-4</t>
+          <t>电子技术吴清收 (1,3-6,10-13周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+          <t>材料分析测试技术汪静 (1,3-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -4343,7 +4255,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+          <t>概率论与数理统计聂世谦 (1,3-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4532,7 +4444,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -4667,7 +4579,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+          <t>管理学(A)姜秀娟 (1,3-12周) 大数据管理与应用2021-1-2</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4694,7 +4606,7 @@
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -4894,7 +4806,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4939,7 +4851,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>危险源辨识与控制刘国明 (6-13周) 安全工程2020-5</t>
+          <t>危险源辨识与控制徐翠翠 (6-13周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -5501,7 +5413,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5532,7 +5444,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>材料分析测试技术吴杰 (7-12周) 金属材料工程2019-1</t>
+          <t>材料分析测试技术迟静 (7-12周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -5602,7 +5514,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
+          <t>Python程序设计施剑 (10-14周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5640,12 +5552,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Python程序设计施剑 (7-14周) 测绘工程2020-1-5</t>
+          <t>Python程序设计施剑 (10-14周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>流体力学辛林 (6-13周) 安全工程2020-3</t>
+          <t>流体力学陈旭,辛林 (9-13周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5679,7 +5591,11 @@
           <t>激光遥感宿殿鹏 (7-14周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>Python程序设计施剑 (11-13周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
@@ -5749,7 +5665,11 @@
           <t>仪器分析刘静 (11-15,17周) 生物工程2020-2</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Python程序设计施剑 (11-13周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr">
         <is>
           <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
@@ -6643,7 +6563,11 @@
           <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (9-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr">
         <is>
           <t>马克思主义基本原理李岩 (1-12周) 新能源材料与器件2020-1-2班,材料化学2020-1-2</t>
@@ -6921,7 +6845,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>数据挖掘刘彤 (7-14周) 采矿工程（智能开采方向）2019-1-2</t>
+          <t>数据挖掘刘彤 (8-14周) 采矿工程（智能开采方向）2019-1-2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -7489,7 +7413,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+          <t>有机化学黄小文 (1,3-16周) 材料化学2020-2</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -8023,49 +7947,89 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-523室</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
+          <t>J14-514室</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>材料科学基础 (A)曹梅青 (7-11周) 金属材料工程2020-2</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr"/>
+          <t>数字化景观技术仇同文 (10-12周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>金属材料学姚树玉 (10-16周) 金属材料工程2019-4</t>
-        </is>
-      </c>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
@@ -8084,89 +8048,57 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-516室</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>数字化景观技术仇同文 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>数字化景观技术仇同文 (10-12周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>中国画孟鸣 (10-13周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
@@ -8185,56 +8117,80 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-531室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王若菡 (1-12周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr"/>
+          <t>工程概论任英伟 (10-17周) 金属材料工程2020-1-4</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr">
         <is>
-          <t>设计色彩乔磊 (8-11周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="Y86" t="inlineStr"/>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -8254,34 +8210,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J14-531室</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
-        </is>
-      </c>
+          <t>J14-533室</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
-        </is>
-      </c>
+          <t>形势与政策（4-4）张洋 (9-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -8289,45 +8241,29 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（C#语言）杨文宇 (6-13周) 安全工程2020-1-2</t>
+          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>中国近现代史纲要王若菡 (1-12周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>工程概论任英伟 (10-17周) 金属材料工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
-          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
-        </is>
-      </c>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
@@ -8347,56 +8283,48 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>J14-533室</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>J14-535室</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>形势与政策（4-4）张洋 (9-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>危险源辨识与控制孟祥喜 (6-13周) 安全工程2020-3</t>
-        </is>
-      </c>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr">
         <is>
-          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr"/>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
@@ -8420,28 +8348,24 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J14-535室</t>
+          <t>J14-528室</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
@@ -8454,17 +8378,25 @@
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
-          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>C语言程序设计张涛 (6-13周) 勘查技术与工程2021-1-2</t>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
@@ -8485,53 +8417,53 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>J14-526室</t>
+          <t>J14-530室</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr">
         <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
         </is>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>印刷工艺刘佳 (10-12周) 视觉传达设计2019-1-2</t>
+          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr"/>
@@ -8554,7 +8486,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>J14-528室</t>
+          <t>J14-532室</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -8562,16 +8494,8 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (7-14周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
@@ -8584,23 +8508,23 @@
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr"/>
@@ -8623,21 +8547,13 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>J14-530室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -8651,27 +8567,27 @@
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>设计色彩孟鸣 (8-11周) 环境设计2021-1</t>
-        </is>
-      </c>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
@@ -8692,48 +8608,72 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>J14-532室</t>
+          <t>J14-525室</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
-        </is>
-      </c>
+          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr"/>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
@@ -8753,7 +8693,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>J14-536室</t>
+          <t>J14-511室</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -8761,40 +8701,56 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>地下工程测量学靳奉祥 (8-15周) 测绘工程2019-1</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr">
         <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
+        </is>
+      </c>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
@@ -8814,40 +8770,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-521室</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="P95" t="inlineStr"/>
@@ -8855,31 +8811,23 @@
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>井巷工程马其华 (8-15周) 采矿工程（宋振骐班）2020</t>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>流体力学与流体机械宋维强 (8-11周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="Y95" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
@@ -8899,64 +8847,52 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>J14-511室</t>
+          <t>J14-509室</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
-        </is>
-      </c>
+          <t>工程测量学常乐 (1-7,9-12周) 测绘工程2019-2</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 电子信息科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
-        </is>
-      </c>
+      <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用刘智敏 (6-15周) 测绘工程2020-1</t>
-        </is>
-      </c>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
@@ -8976,63 +8912,63 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>J14-521室</t>
+          <t>J14-332室</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>城市安全与应急管理孙彪 (8-11,13-16周) 安全工程（应急管理方向）2019</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr"/>
+          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>普通地质学刘金庆,宋召军 (6-13周) 地质工程2021-3</t>
+        </is>
+      </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr"/>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
@@ -9053,41 +8989,73 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>J14-509室</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+          <t>J14-519室</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
+        </is>
+      </c>
       <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
+        </is>
+      </c>
       <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr">
         <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr"/>
@@ -9110,63 +9078,43 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>J14-332室</t>
+          <t>J14-515室</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>城市安全与应急管理孙彪 (8-11,13-16周) 安全工程（应急管理方向）2019</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>工程测量学于胜文 (1-6,8-12周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
-          <t>专门水文地质学邱梅 (8-17周) 水文与水资源工程2019-1</t>
+          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
         </is>
       </c>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>普通地质学刘金庆,宋召军 (6-13周) 地质工程2021-3</t>
-        </is>
-      </c>
+      <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>工程测量田茂义 (9-14周) 资源勘查工程2021-1</t>
-        </is>
-      </c>
+      <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>水文地质学郭建斌 (10-17周) 地质工程2020-1</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
+        </is>
+      </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
@@ -9181,152 +9129,6 @@
       <c r="AJ99" t="inlineStr"/>
       <c r="AK99" t="inlineStr"/>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>J14-519室</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>仪器分析高中政 (11-15,17周) 生物工程2020-1</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
-      <c r="AH100" t="inlineStr"/>
-      <c r="AI100" t="inlineStr"/>
-      <c r="AJ100" t="inlineStr"/>
-      <c r="AK100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>J14-515室</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>GNSS原理与应用崔健慧 (6-15周) 测绘工程2020-5</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
-      <c r="AC101" t="inlineStr"/>
-      <c r="AD101" t="inlineStr"/>
-      <c r="AE101" t="inlineStr"/>
-      <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="inlineStr"/>
-      <c r="AH101" t="inlineStr"/>
-      <c r="AI101" t="inlineStr"/>
-      <c r="AJ101" t="inlineStr"/>
-      <c r="AK101" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
